--- a/Practica_1/Modos/Patran/Modos_FEM.xlsx
+++ b/Practica_1/Modos/Patran/Modos_FEM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\EUE\Practica_1\Modos\Patran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B9196A-EC81-4536-A99B-427B904BC8C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6A9BB2-DBDE-4ECA-A5B8-5A86C739F5EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17400" yWindow="3795" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6675" yWindow="3945" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geometria" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Puntos</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Elementos</t>
   </si>
   <si>
-    <t>Quad</t>
-  </si>
-  <si>
     <t>Cono</t>
   </si>
   <si>
@@ -83,6 +80,15 @@
   </si>
   <si>
     <t>1000-1400</t>
+  </si>
+  <si>
+    <t>Masa</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Quad4</t>
   </si>
 </sst>
 </file>
@@ -517,10 +523,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C022CD-47B6-47D2-A34F-341FD1380C71}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,26 +538,45 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
